--- a/Assets/StreamingAssets/Data/server_config.xlsx
+++ b/Assets/StreamingAssets/Data/server_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D1E3C8-593D-49BD-9CEC-FA2C82B331CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE995FDD-38EB-426A-A380-6503A4235643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.20.131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RoomServerAddress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,7 +55,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4739125571824462819</t>
+    <t>192.168.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5351642921885036102</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -388,24 +392,24 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -416,27 +420,27 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>9999</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>8889</v>

--- a/Assets/StreamingAssets/Data/server_config.xlsx
+++ b/Assets/StreamingAssets/Data/server_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-roomserver\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE995FDD-38EB-426A-A380-6503A4235643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8534DDA-C15B-4EF0-A987-DA1B13A37B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +55,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5351642921885036102</t>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
+    <t>4739125571824462819</t>
+  </si>
+  <si>
+    <t>192.168.20.131</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,24 +388,24 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -429,24 +425,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>9999</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>8889</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Data/server_config.xlsx
+++ b/Assets/StreamingAssets/Data/server_config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-roomserver\Assets\StreamingAssets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\android-hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8534DDA-C15B-4EF0-A987-DA1B13A37B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDDB6C7-D3FE-4664-B3D1-A84669600892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,11 +55,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4739125571824462819</t>
-  </si>
-  <si>
     <t>192.168.20.131</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4783926606423112795</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -430,19 +430,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>9999</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>8889</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Data/server_config.xlsx
+++ b/Assets/StreamingAssets/Data/server_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\android-hexmap-democlient\Assets\StreamingAssets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-roomserver\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDDB6C7-D3FE-4664-B3D1-A84669600892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15DB310-F67C-40B9-80B5-D665CF790FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4783926606423112795</t>
+    <t>4727935648655061390</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
